--- a/data/api.xlsx
+++ b/data/api.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="251">
   <si>
     <t>bib</t>
   </si>
@@ -322,9 +322,6 @@
     <t>Sharma2016</t>
   </si>
   <si>
-    <t>Stevens2018</t>
-  </si>
-  <si>
     <t>treat.optimal</t>
   </si>
   <si>
@@ -716,9 +713,6 @@
   </si>
   <si>
     <t>cov.high</t>
-  </si>
-  <si>
-    <t>Link4Health</t>
   </si>
   <si>
     <t>*</t>
@@ -1130,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC144"/>
+  <dimension ref="A1:BC143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1308,19 +1302,19 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E2">
         <v>0.8</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H2">
         <v>0.01</v>
@@ -1332,22 +1326,22 @@
         <v>2010</v>
       </c>
       <c r="K2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N2">
         <v>0.0035</v>
       </c>
       <c r="O2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Z2">
         <v>0.06</v>
@@ -1364,19 +1358,19 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E3">
         <v>0.8</v>
       </c>
       <c r="G3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H3">
         <v>0.33</v>
@@ -1388,22 +1382,22 @@
         <v>2010</v>
       </c>
       <c r="K3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N3">
         <v>0.0035</v>
       </c>
       <c r="O3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Z3">
         <v>-0.14</v>
@@ -1420,19 +1414,19 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1447,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -1473,19 +1467,19 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>350</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1500,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -1520,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1547,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1564,19 +1558,19 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7">
         <v>350</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1585,19 +1579,19 @@
         <v>0.4</v>
       </c>
       <c r="L7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="W7">
         <v>0.282</v>
@@ -1611,19 +1605,19 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8">
         <v>350</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E8">
         <v>0.9</v>
       </c>
       <c r="G8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H8">
         <v>0.1</v>
@@ -1661,19 +1655,19 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E9">
         <v>0.9</v>
       </c>
       <c r="G9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H9">
         <v>0.1</v>
@@ -1711,19 +1705,19 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F10">
         <v>0.16</v>
       </c>
       <c r="G10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H10">
         <v>0.01</v>
@@ -1753,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL10">
         <v>0.006</v>
@@ -1773,19 +1767,19 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F11">
         <v>0.16</v>
       </c>
       <c r="G11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H11">
         <v>0.01</v>
@@ -1815,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL11">
         <v>0.01</v>
@@ -1835,19 +1829,19 @@
         <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F12">
         <v>0.16</v>
       </c>
       <c r="G12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H12">
         <v>0.01</v>
@@ -1877,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL12">
         <v>0.006</v>
@@ -1897,19 +1891,19 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F13">
         <v>0.16</v>
       </c>
       <c r="G13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H13">
         <v>0.01</v>
@@ -1939,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL13">
         <v>0.006</v>
@@ -1959,19 +1953,19 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F14">
         <v>0.16</v>
       </c>
       <c r="G14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H14">
         <v>0.01</v>
@@ -2001,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL14">
         <v>0.021</v>
@@ -2021,19 +2015,19 @@
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F15">
         <v>0.16</v>
       </c>
       <c r="G15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H15">
         <v>0.01</v>
@@ -2063,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL15">
         <v>0.027</v>
@@ -2083,19 +2077,19 @@
         <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E16">
         <v>0.2</v>
       </c>
       <c r="G16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H16">
         <v>0.01</v>
@@ -2125,7 +2119,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+      <c r="AO16">
+        <v>0.53</v>
       </c>
     </row>
     <row r="17" spans="1:53">
@@ -2133,19 +2130,19 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E17">
         <v>0.5</v>
       </c>
       <c r="G17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H17">
         <v>0.01</v>
@@ -2175,7 +2172,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+      <c r="AO17">
+        <v>0.32</v>
       </c>
     </row>
     <row r="18" spans="1:53">
@@ -2183,19 +2183,19 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F18">
         <v>0.2</v>
       </c>
       <c r="G18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H18">
         <v>0.1</v>
@@ -2228,10 +2228,13 @@
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="W18">
         <v>0.57</v>
+      </c>
+      <c r="AO18">
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:53">
@@ -2239,19 +2242,19 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E19">
         <v>0.75</v>
       </c>
       <c r="G19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H19">
         <v>0.01</v>
@@ -2275,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T19">
         <v>0.21</v>
@@ -2292,22 +2295,22 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2337,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="S20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T20">
         <v>0.35</v>
@@ -2351,19 +2354,19 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F21">
         <v>0.92</v>
       </c>
       <c r="G21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H21">
         <v>0.1</v>
@@ -2404,19 +2407,19 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F22">
         <v>0.92</v>
       </c>
       <c r="G22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H22">
         <v>0.1</v>
@@ -2457,19 +2460,19 @@
         <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F23">
         <v>0.92</v>
       </c>
       <c r="G23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H23">
         <v>0.1</v>
@@ -2510,19 +2513,19 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24">
         <v>350</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H24">
         <v>0.08</v>
@@ -2563,19 +2566,19 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25">
         <v>500</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H25">
         <v>0.08</v>
@@ -2616,19 +2619,19 @@
         <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H26">
         <v>0.08</v>
@@ -2669,19 +2672,19 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H27">
         <v>0.04</v>
@@ -2693,25 +2696,25 @@
         <v>2010</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N27">
         <v>0.018</v>
       </c>
       <c r="O27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W27">
         <v>0.43</v>
@@ -2728,19 +2731,19 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H28">
         <v>0.15</v>
@@ -2752,25 +2755,25 @@
         <v>2010</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N28">
         <v>0.018</v>
       </c>
       <c r="O28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="W28">
         <v>0.26</v>
@@ -2787,19 +2790,19 @@
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H29">
         <v>0.04</v>
@@ -2811,25 +2814,25 @@
         <v>2010</v>
       </c>
       <c r="K29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N29">
         <v>0.018</v>
       </c>
       <c r="O29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="W29">
         <v>0.92</v>
@@ -2846,19 +2849,19 @@
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H30">
         <v>0.15</v>
@@ -2870,25 +2873,25 @@
         <v>2010</v>
       </c>
       <c r="K30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N30">
         <v>0.018</v>
       </c>
       <c r="O30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="W30">
         <v>0.78</v>
@@ -2905,19 +2908,19 @@
         <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31">
         <v>200</v>
       </c>
       <c r="D31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E31">
         <v>0.8</v>
       </c>
       <c r="G31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H31">
         <v>0.04</v>
@@ -2938,16 +2941,16 @@
         <v>-1</v>
       </c>
       <c r="N31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AO31">
         <v>0.2</v>
@@ -2964,19 +2967,19 @@
         <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32">
         <v>350</v>
       </c>
       <c r="D32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E32">
         <v>0.66</v>
       </c>
       <c r="G32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H32">
         <v>0.04</v>
@@ -2997,13 +3000,13 @@
         <v>-1</v>
       </c>
       <c r="N32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO32">
         <v>0.231</v>
@@ -3014,19 +3017,19 @@
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33">
         <v>350</v>
       </c>
       <c r="D33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E33">
         <v>0.8</v>
       </c>
       <c r="G33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H33">
         <v>0.04</v>
@@ -3047,13 +3050,13 @@
         <v>-1</v>
       </c>
       <c r="N33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO33">
         <v>0.283</v>
@@ -3064,19 +3067,19 @@
         <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34">
         <v>350</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E34">
         <v>0.75</v>
       </c>
       <c r="G34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H34">
         <v>0.04</v>
@@ -3094,13 +3097,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="W34">
         <v>0.147</v>
@@ -3111,37 +3114,37 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35">
         <v>350</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E35">
         <v>0.4</v>
       </c>
       <c r="G35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H35">
         <v>0.04</v>
       </c>
       <c r="I35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J35">
         <v>2013</v>
       </c>
       <c r="K35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N35">
         <v>0.026</v>
@@ -3153,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="S35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AO35">
         <v>0.112</v>
@@ -3164,37 +3167,37 @@
         <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36">
         <v>350</v>
       </c>
       <c r="D36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E36">
         <v>0.8</v>
       </c>
       <c r="G36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H36">
         <v>0.04</v>
       </c>
       <c r="I36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J36">
         <v>2013</v>
       </c>
       <c r="K36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N36">
         <v>0.026</v>
@@ -3206,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="S36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AO36">
         <v>0.216</v>
@@ -3217,37 +3220,37 @@
         <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E37">
         <v>0.8</v>
       </c>
       <c r="G37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H37">
         <v>0.04</v>
       </c>
       <c r="I37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J37">
         <v>2013</v>
       </c>
       <c r="K37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N37">
         <v>0.026</v>
@@ -3259,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="S37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AO37">
         <v>0.347</v>
@@ -3270,19 +3273,19 @@
         <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38">
         <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E38">
         <v>0.52</v>
       </c>
       <c r="G38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H38">
         <v>0.08</v>
@@ -3303,16 +3306,16 @@
         <v>0.025</v>
       </c>
       <c r="O38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q38">
         <v>-1</v>
       </c>
       <c r="S38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T38">
         <v>0.24</v>
@@ -3326,19 +3329,19 @@
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C39">
         <v>350</v>
       </c>
       <c r="D39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H39">
         <v>0.08</v>
@@ -3359,16 +3362,16 @@
         <v>0.025</v>
       </c>
       <c r="O39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q39">
         <v>-1</v>
       </c>
       <c r="S39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T39">
         <v>0.32</v>
@@ -3382,19 +3385,19 @@
         <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H40">
         <v>0.08</v>
@@ -3415,10 +3418,10 @@
         <v>0.025</v>
       </c>
       <c r="O40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q40">
         <v>-1</v>
@@ -3438,19 +3441,19 @@
         <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41">
         <v>500</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F41">
         <v>0.105</v>
       </c>
       <c r="G41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H41">
         <v>0.05</v>
@@ -3477,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="S41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T41">
         <v>0.273</v>
@@ -3506,25 +3509,25 @@
         <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42">
         <v>350</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F42">
         <v>0.175</v>
       </c>
       <c r="G42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H42">
         <v>0.05</v>
       </c>
       <c r="I42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J42">
         <v>2012</v>
@@ -3548,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AO42">
         <v>0.126</v>
@@ -3565,25 +3568,25 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43">
         <v>500</v>
       </c>
       <c r="D43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F43">
         <v>0.175</v>
       </c>
       <c r="G43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H43">
         <v>0.05</v>
       </c>
       <c r="I43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J43">
         <v>2012</v>
@@ -3607,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AO43">
         <v>0.288</v>
@@ -3624,25 +3627,25 @@
         <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44">
         <v>350</v>
       </c>
       <c r="D44" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F44">
         <v>0.175</v>
       </c>
       <c r="G44" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H44">
         <v>0.05</v>
       </c>
       <c r="I44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J44">
         <v>2012</v>
@@ -3666,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AO44">
         <v>0.116</v>
@@ -3683,25 +3686,25 @@
         <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45">
         <v>500</v>
       </c>
       <c r="D45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F45">
         <v>0.175</v>
       </c>
       <c r="G45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H45">
         <v>0.05</v>
       </c>
       <c r="I45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J45">
         <v>2012</v>
@@ -3725,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AO45">
         <v>0.263</v>
@@ -3742,19 +3745,19 @@
         <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46">
         <v>350</v>
       </c>
       <c r="D46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E46">
         <v>0.5</v>
       </c>
       <c r="G46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H46">
         <v>0.05</v>
@@ -3769,7 +3772,7 @@
         <v>-1</v>
       </c>
       <c r="M46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N46">
         <v>0.014</v>
@@ -3778,7 +3781,7 @@
         <v>-1</v>
       </c>
       <c r="P46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AU46">
         <v>0.283</v>
@@ -3789,19 +3792,19 @@
         <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47">
         <v>350</v>
       </c>
       <c r="D47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H47">
         <v>0.05</v>
@@ -3816,7 +3819,7 @@
         <v>-1</v>
       </c>
       <c r="M47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N47">
         <v>0.014</v>
@@ -3825,7 +3828,7 @@
         <v>-1</v>
       </c>
       <c r="P47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AU47">
         <v>0.38</v>
@@ -3836,19 +3839,19 @@
         <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E48">
         <v>0.5</v>
       </c>
       <c r="G48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H48">
         <v>0.05</v>
@@ -3863,7 +3866,7 @@
         <v>-1</v>
       </c>
       <c r="M48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N48">
         <v>0.014</v>
@@ -3872,7 +3875,7 @@
         <v>-1</v>
       </c>
       <c r="P48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AU48">
         <v>0.671</v>
@@ -3883,19 +3886,19 @@
         <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H49">
         <v>0.05</v>
@@ -3910,7 +3913,7 @@
         <v>-1</v>
       </c>
       <c r="M49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N49">
         <v>0.014</v>
@@ -3919,7 +3922,7 @@
         <v>-1</v>
       </c>
       <c r="P49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AU49">
         <v>0.75</v>
@@ -3930,19 +3933,19 @@
         <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50">
         <v>350</v>
       </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F50">
         <v>0.23</v>
       </c>
       <c r="G50" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H50">
         <v>0.08</v>
@@ -3989,19 +3992,19 @@
         <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51">
         <v>350</v>
       </c>
       <c r="D51" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F51">
         <v>0.23</v>
       </c>
       <c r="G51" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H51">
         <v>0.08</v>
@@ -4048,19 +4051,19 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52">
         <v>350</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F52">
         <v>0.23</v>
       </c>
       <c r="G52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H52">
         <v>0.08</v>
@@ -4107,19 +4110,19 @@
         <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53">
         <v>500</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E53">
         <v>0.55</v>
       </c>
       <c r="G53" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H53">
         <v>0.04</v>
@@ -4128,22 +4131,22 @@
         <v>2014</v>
       </c>
       <c r="K53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO53">
         <v>0.37</v>
@@ -4154,22 +4157,22 @@
         <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54">
         <v>350</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F54">
         <v>0.8</v>
       </c>
       <c r="G54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I54">
         <v>2014</v>
@@ -4193,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="S54" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AC54">
         <v>0.5</v>
@@ -4204,22 +4207,22 @@
         <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F55">
         <v>0.25</v>
       </c>
       <c r="G55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I55">
         <v>2014</v>
@@ -4243,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="S55" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AC55">
         <v>0.41</v>
@@ -4254,22 +4257,22 @@
         <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F56">
         <v>0.8</v>
       </c>
       <c r="G56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I56">
         <v>2014</v>
@@ -4293,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="S56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AC56">
         <v>0.75</v>
@@ -4304,22 +4307,22 @@
         <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C57">
         <v>350</v>
       </c>
       <c r="D57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F57">
         <v>0.8</v>
       </c>
       <c r="G57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I57">
         <v>2014</v>
@@ -4343,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="S57" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AC57">
         <v>0.09</v>
@@ -4354,22 +4357,22 @@
         <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" t="s">
         <v>236</v>
-      </c>
-      <c r="D58" t="s">
-        <v>238</v>
       </c>
       <c r="F58">
         <v>0.8</v>
       </c>
       <c r="G58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I58">
         <v>2014</v>
@@ -4393,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="S58" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AC58">
         <v>0.29</v>
@@ -4404,19 +4407,19 @@
         <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H59">
         <v>0.1</v>
@@ -4451,19 +4454,19 @@
         <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60">
         <v>350</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E60">
         <v>0.8</v>
       </c>
       <c r="G60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H60">
         <v>0.12</v>
@@ -4484,13 +4487,13 @@
         <v>-1</v>
       </c>
       <c r="N60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R60">
         <v>95</v>
@@ -4510,19 +4513,19 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C61">
         <v>500</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E61">
         <v>0.8</v>
       </c>
       <c r="G61" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H61">
         <v>0.12</v>
@@ -4543,19 +4546,19 @@
         <v>-1</v>
       </c>
       <c r="N61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R61">
         <v>95</v>
       </c>
       <c r="S61" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AO61">
         <v>0.4</v>
@@ -4566,19 +4569,19 @@
         <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G62" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H62">
         <v>0.13</v>
@@ -4590,22 +4593,22 @@
         <v>2013</v>
       </c>
       <c r="K62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO62">
         <v>0.13</v>
@@ -4616,19 +4619,19 @@
         <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63">
         <v>350</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F63">
         <v>0.2</v>
       </c>
       <c r="G63" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H63">
         <v>0.04</v>
@@ -4646,16 +4649,16 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S63" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL63">
         <v>0.037</v>
@@ -4666,19 +4669,19 @@
         <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64">
         <v>350</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F64">
         <v>0.4</v>
       </c>
       <c r="G64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H64">
         <v>0.04</v>
@@ -4696,16 +4699,16 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL64">
         <v>0.091</v>
@@ -4716,19 +4719,19 @@
         <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C65">
         <v>350</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F65">
         <v>0.6</v>
       </c>
       <c r="G65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H65">
         <v>0.04</v>
@@ -4746,16 +4749,16 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S65" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL65">
         <v>0.129</v>
@@ -4766,19 +4769,19 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66">
         <v>350</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F66">
         <v>0.8</v>
       </c>
       <c r="G66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H66">
         <v>0.04</v>
@@ -4796,16 +4799,16 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL66">
         <v>0.154</v>
@@ -4816,19 +4819,19 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67">
         <v>350</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F67">
         <v>0.1</v>
       </c>
       <c r="G67" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H67">
         <v>0.04</v>
@@ -4846,16 +4849,16 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S67" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL67">
         <v>0.175</v>
@@ -4866,19 +4869,19 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68">
         <v>500</v>
       </c>
       <c r="D68" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F68">
         <v>0.2</v>
       </c>
       <c r="G68" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H68">
         <v>0.04</v>
@@ -4896,16 +4899,16 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O68" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P68" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S68" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL68">
         <v>0.092</v>
@@ -4916,19 +4919,19 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C69">
         <v>500</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F69">
         <v>0.4</v>
       </c>
       <c r="G69" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H69">
         <v>0.04</v>
@@ -4946,16 +4949,16 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O69" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S69" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL69">
         <v>0.178</v>
@@ -4966,19 +4969,19 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C70">
         <v>500</v>
       </c>
       <c r="D70" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F70">
         <v>0.6</v>
       </c>
       <c r="G70" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H70">
         <v>0.04</v>
@@ -4996,16 +4999,16 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O70" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL70">
         <v>0.23</v>
@@ -5016,19 +5019,19 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C71">
         <v>500</v>
       </c>
       <c r="D71" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F71">
         <v>0.8</v>
       </c>
       <c r="G71" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H71">
         <v>0.04</v>
@@ -5046,16 +5049,16 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S71" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL71">
         <v>0.266</v>
@@ -5066,19 +5069,19 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72">
         <v>500</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F72">
         <v>0.1</v>
       </c>
       <c r="G72" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H72">
         <v>0.04</v>
@@ -5096,16 +5099,16 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O72" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P72" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL72">
         <v>0.292</v>
@@ -5116,19 +5119,19 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F73">
         <v>0.2</v>
       </c>
       <c r="G73" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H73">
         <v>0.04</v>
@@ -5146,16 +5149,16 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O73" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P73" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S73" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL73">
         <v>0.273</v>
@@ -5166,19 +5169,19 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D74" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F74">
         <v>0.4</v>
       </c>
       <c r="G74" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H74">
         <v>0.04</v>
@@ -5196,16 +5199,16 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O74" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL74">
         <v>0.473</v>
@@ -5216,19 +5219,19 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F75">
         <v>0.6</v>
       </c>
       <c r="G75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H75">
         <v>0.04</v>
@@ -5246,16 +5249,16 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL75">
         <v>0.599</v>
@@ -5266,19 +5269,19 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C76" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D76" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F76">
         <v>0.8</v>
       </c>
       <c r="G76" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H76">
         <v>0.04</v>
@@ -5296,16 +5299,16 @@
         <v>0</v>
       </c>
       <c r="N76" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O76" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S76" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL76">
         <v>0.679</v>
@@ -5316,19 +5319,19 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D77" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F77">
         <v>0.1</v>
       </c>
       <c r="G77" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H77">
         <v>0.04</v>
@@ -5346,16 +5349,16 @@
         <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S77" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL77">
         <v>0.734</v>
@@ -5366,19 +5369,19 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78">
         <v>500</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F78">
         <v>0.5</v>
       </c>
       <c r="G78" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H78">
         <v>0.12</v>
@@ -5387,13 +5390,13 @@
         <v>2015</v>
       </c>
       <c r="K78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N78">
         <v>0.0103</v>
@@ -5405,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T78">
         <v>0.072</v>
@@ -5419,19 +5422,19 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C79">
         <v>500</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H79">
         <v>0.12</v>
@@ -5440,13 +5443,13 @@
         <v>2015</v>
       </c>
       <c r="K79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N79">
         <v>0.0103</v>
@@ -5458,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T79">
         <v>0.127</v>
@@ -5472,19 +5475,19 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C80">
         <v>500</v>
       </c>
       <c r="D80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F80">
         <v>2</v>
       </c>
       <c r="G80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H80">
         <v>0.12</v>
@@ -5493,13 +5496,13 @@
         <v>2015</v>
       </c>
       <c r="K80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N80">
         <v>0.0103</v>
@@ -5511,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="S80" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T80">
         <v>0.207</v>
@@ -5525,19 +5528,19 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C81">
         <v>500</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E81">
         <v>0.8</v>
       </c>
       <c r="G81" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H81">
         <v>0.04</v>
@@ -5558,7 +5561,7 @@
         <v>-1</v>
       </c>
       <c r="N81" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -5570,7 +5573,7 @@
         <v>-1</v>
       </c>
       <c r="S81" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T81">
         <v>0.29</v>
@@ -5581,19 +5584,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C82">
         <v>500</v>
       </c>
       <c r="D82" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E82">
         <v>0.9</v>
       </c>
       <c r="G82" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H82">
         <v>0.04</v>
@@ -5614,7 +5617,7 @@
         <v>-1</v>
       </c>
       <c r="N82" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -5626,7 +5629,7 @@
         <v>-1</v>
       </c>
       <c r="S82" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T82">
         <v>0.455</v>
@@ -5637,19 +5640,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E83">
         <v>0.8</v>
       </c>
       <c r="G83" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H83">
         <v>0.04</v>
@@ -5670,7 +5673,7 @@
         <v>-1</v>
       </c>
       <c r="N83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -5682,7 +5685,7 @@
         <v>-1</v>
       </c>
       <c r="S83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T83">
         <v>0.43</v>
@@ -5693,19 +5696,19 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E84">
         <v>0.9</v>
       </c>
       <c r="G84" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H84">
         <v>0.04</v>
@@ -5726,7 +5729,7 @@
         <v>-1</v>
       </c>
       <c r="N84" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -5738,7 +5741,7 @@
         <v>-1</v>
       </c>
       <c r="S84" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T84">
         <v>0.565</v>
@@ -5749,19 +5752,19 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C85" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E85">
         <v>0.48</v>
       </c>
       <c r="G85" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H85">
         <v>0.04</v>
@@ -5788,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="S85" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="W85">
         <v>0.338</v>
@@ -5799,19 +5802,19 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E86">
         <v>0.6</v>
       </c>
       <c r="G86" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H86">
         <v>0.04</v>
@@ -5838,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="S86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="W86">
         <v>0.406</v>
@@ -5849,19 +5852,19 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E87">
         <v>0.6</v>
       </c>
       <c r="G87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H87">
         <v>0.04</v>
@@ -5888,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="S87" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="W87">
         <v>0.516</v>
@@ -5899,19 +5902,19 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C88" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D88" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F88" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G88" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H88">
         <v>0.035</v>
@@ -5938,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="S88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T88">
         <v>-0.111</v>
@@ -5958,19 +5961,19 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D89" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F89" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G89" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H89">
         <v>0.035</v>
@@ -5997,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="S89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T89">
         <v>-0.098</v>
@@ -6017,19 +6020,19 @@
         <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C90">
         <v>500</v>
       </c>
       <c r="D90" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F90">
         <v>0.95</v>
       </c>
       <c r="G90" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H90">
         <v>0.27</v>
@@ -6079,19 +6082,19 @@
         <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F91">
         <v>0.95</v>
       </c>
       <c r="G91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H91">
         <v>0.27</v>
@@ -6141,19 +6144,19 @@
         <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D92" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E92">
         <v>0.4</v>
       </c>
       <c r="G92" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H92">
         <v>0.04</v>
@@ -6174,16 +6177,16 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S92" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AR92">
         <v>0.081</v>
@@ -6200,19 +6203,19 @@
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E93">
         <v>0.4</v>
       </c>
       <c r="G93" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H93">
         <v>0.04</v>
@@ -6233,16 +6236,16 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O93" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P93" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S93" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL93">
         <v>0.044</v>
@@ -6259,19 +6262,19 @@
         <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C94" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D94" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E94">
         <v>0.4</v>
       </c>
       <c r="G94" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H94">
         <v>0.04</v>
@@ -6292,16 +6295,16 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O94" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P94" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S94" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL94">
         <v>0.151</v>
@@ -6318,19 +6321,19 @@
         <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C95" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D95" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E95">
         <v>0.83</v>
       </c>
       <c r="G95" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H95">
         <v>0.04</v>
@@ -6354,16 +6357,16 @@
         <v>0.0023</v>
       </c>
       <c r="O95" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R95">
         <v>95</v>
       </c>
       <c r="S95" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL95">
         <v>0.03</v>
@@ -6398,19 +6401,19 @@
         <v>86</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C96" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D96" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E96">
         <v>0.9025</v>
       </c>
       <c r="G96" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H96">
         <v>0.04</v>
@@ -6434,16 +6437,16 @@
         <v>0.0023</v>
       </c>
       <c r="O96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z96">
         <v>0.85</v>
@@ -6487,19 +6490,19 @@
         <v>86</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C97" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D97" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E97">
         <v>0.9025</v>
       </c>
       <c r="G97" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H97">
         <v>0.04</v>
@@ -6523,16 +6526,16 @@
         <v>0.0023</v>
       </c>
       <c r="O97" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R97">
         <v>95</v>
       </c>
       <c r="S97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL97">
         <v>0.061</v>
@@ -6567,19 +6570,19 @@
         <v>86</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C98" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D98" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E98">
         <v>0.81</v>
       </c>
       <c r="G98" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H98">
         <v>0.04</v>
@@ -6603,16 +6606,16 @@
         <v>0.0023</v>
       </c>
       <c r="O98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R98">
         <v>95</v>
       </c>
       <c r="S98" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL98">
         <v>0.179</v>
@@ -6647,19 +6650,19 @@
         <v>86</v>
       </c>
       <c r="B99" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C99" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D99" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E99">
         <v>0.9025</v>
       </c>
       <c r="G99" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H99">
         <v>0.04</v>
@@ -6683,16 +6686,16 @@
         <v>0.0023</v>
       </c>
       <c r="O99" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R99">
         <v>95</v>
       </c>
       <c r="S99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL99">
         <v>0.164</v>
@@ -6727,19 +6730,19 @@
         <v>86</v>
       </c>
       <c r="B100" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C100" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D100" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E100" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G100" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H100">
         <v>0.04</v>
@@ -6763,16 +6766,16 @@
         <v>0.0023</v>
       </c>
       <c r="O100" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R100">
         <v>95</v>
       </c>
       <c r="S100" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL100">
         <v>0.026</v>
@@ -6807,19 +6810,19 @@
         <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C101" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D101" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E101" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G101" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H101">
         <v>0.04</v>
@@ -6843,16 +6846,16 @@
         <v>0.0023</v>
       </c>
       <c r="O101" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R101">
         <v>95</v>
       </c>
       <c r="S101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL101">
         <v>0.102</v>
@@ -6887,19 +6890,19 @@
         <v>86</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C102" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D102" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E102">
         <v>0.9025</v>
       </c>
       <c r="G102" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H102">
         <v>0.04</v>
@@ -6923,16 +6926,16 @@
         <v>0.0023</v>
       </c>
       <c r="O102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R102">
         <v>95</v>
       </c>
       <c r="S102" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL102">
         <v>0.208</v>
@@ -6967,19 +6970,19 @@
         <v>86</v>
       </c>
       <c r="B103" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D103" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E103">
         <v>0.9025</v>
       </c>
       <c r="G103" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H103">
         <v>0.04</v>
@@ -7003,16 +7006,16 @@
         <v>0.0023</v>
       </c>
       <c r="O103" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P103" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R103">
         <v>95</v>
       </c>
       <c r="S103" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL103">
         <v>0.107</v>
@@ -7047,19 +7050,19 @@
         <v>87</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C104" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D104" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E104">
         <v>0.73</v>
       </c>
       <c r="G104" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I104">
         <v>2016</v>
@@ -7074,7 +7077,7 @@
         <v>-1</v>
       </c>
       <c r="M104" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N104">
         <v>0.0011</v>
@@ -7083,13 +7086,13 @@
         <v>-1</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R104">
         <v>95</v>
       </c>
       <c r="S104" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL104">
         <v>0.266</v>
@@ -7115,19 +7118,19 @@
         <v>87</v>
       </c>
       <c r="B105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D105" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E105">
         <v>0.73</v>
       </c>
       <c r="G105" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I105">
         <v>2016</v>
@@ -7142,7 +7145,7 @@
         <v>-1</v>
       </c>
       <c r="M105" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N105">
         <v>0.0011</v>
@@ -7151,13 +7154,13 @@
         <v>-1</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R105">
         <v>95</v>
       </c>
       <c r="S105" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AU105">
         <v>0.274</v>
@@ -7174,19 +7177,19 @@
         <v>88</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C106">
         <v>500</v>
       </c>
       <c r="D106" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E106">
         <v>0.81</v>
       </c>
       <c r="G106" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H106">
         <v>0.04</v>
@@ -7213,7 +7216,7 @@
         <v>-1</v>
       </c>
       <c r="R106" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T106">
         <v>0.3</v>
@@ -7230,19 +7233,19 @@
         <v>88</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C107" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D107" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E107">
         <v>0.73</v>
       </c>
       <c r="G107" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H107">
         <v>0.04</v>
@@ -7269,7 +7272,7 @@
         <v>-1</v>
       </c>
       <c r="R107" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T107">
         <v>0.36</v>
@@ -7286,19 +7289,19 @@
         <v>89</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C108" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D108" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E108">
         <v>0.4</v>
       </c>
       <c r="G108" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H108">
         <v>0.095</v>
@@ -7319,13 +7322,13 @@
         <v>-1</v>
       </c>
       <c r="N108" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O108" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AR108">
         <v>0.49</v>
@@ -7342,19 +7345,19 @@
         <v>89</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C109" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D109" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E109">
         <v>0.74</v>
       </c>
       <c r="G109" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H109">
         <v>0.095</v>
@@ -7375,13 +7378,13 @@
         <v>0</v>
       </c>
       <c r="N109" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O109" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q109">
         <v>-2</v>
@@ -7401,19 +7404,19 @@
         <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D110" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F110">
         <v>0.9</v>
       </c>
       <c r="G110" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H110">
         <v>0.04</v>
@@ -7440,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="S110" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T110">
         <v>0.796</v>
@@ -7460,19 +7463,19 @@
         <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C111" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D111" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F111">
         <v>0.9</v>
       </c>
       <c r="G111" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H111">
         <v>0.04</v>
@@ -7499,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="S111" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T111">
         <v>0.694</v>
@@ -7519,19 +7522,19 @@
         <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C112" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D112" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F112">
         <v>0.8</v>
       </c>
       <c r="G112" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H112">
         <v>0.2</v>
@@ -7558,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="S112" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T112">
         <v>0.136</v>
@@ -7578,19 +7581,19 @@
         <v>90</v>
       </c>
       <c r="B113" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C113" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D113" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F113">
         <v>0.8</v>
       </c>
       <c r="G113" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H113">
         <v>0.2</v>
@@ -7617,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="S113" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T113">
         <v>-0.265</v>
@@ -7637,19 +7640,19 @@
         <v>91</v>
       </c>
       <c r="B114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D114" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E114">
         <v>0.72</v>
       </c>
       <c r="G114" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H114">
         <v>0.04</v>
@@ -7690,19 +7693,19 @@
         <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C115" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D115" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E115">
         <v>0.9025</v>
       </c>
       <c r="G115" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H115">
         <v>0.1</v>
@@ -7723,7 +7726,7 @@
         <v>-1</v>
       </c>
       <c r="N115" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O115">
         <v>-1</v>
@@ -7732,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="S115" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AR115">
         <v>0.584</v>
@@ -7743,19 +7746,19 @@
         <v>93</v>
       </c>
       <c r="B116" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C116" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D116" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E116" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G116" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H116">
         <v>0.14</v>
@@ -7782,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="S116" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T116">
         <v>0.104</v>
@@ -7799,19 +7802,19 @@
         <v>93</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D117" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E117" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G117" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H117">
         <v>0.14</v>
@@ -7838,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="S117" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T117">
         <v>0.062</v>
@@ -7855,19 +7858,19 @@
         <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C118" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H118">
         <v>0.14</v>
@@ -7894,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="S118" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T118">
         <v>0.027</v>
@@ -7911,19 +7914,19 @@
         <v>93</v>
       </c>
       <c r="B119" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H119">
         <v>0.14</v>
@@ -7950,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="S119" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T119">
         <v>0.127</v>
@@ -7967,19 +7970,19 @@
         <v>93</v>
       </c>
       <c r="B120" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H120">
         <v>0.14</v>
@@ -8006,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="S120" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T120">
         <v>0.087</v>
@@ -8023,19 +8026,19 @@
         <v>93</v>
       </c>
       <c r="B121" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H121">
         <v>0.14</v>
@@ -8062,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="S121" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T121">
         <v>0.053</v>
@@ -8079,19 +8082,19 @@
         <v>93</v>
       </c>
       <c r="B122" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H122">
         <v>0.14</v>
@@ -8118,7 +8121,7 @@
         <v>1</v>
       </c>
       <c r="S122" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T122">
         <v>0.101</v>
@@ -8135,19 +8138,19 @@
         <v>93</v>
       </c>
       <c r="B123" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C123" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H123">
         <v>0.14</v>
@@ -8174,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="S123" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T123">
         <v>0.062</v>
@@ -8191,19 +8194,19 @@
         <v>93</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C124" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D124" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G124" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H124">
         <v>0.14</v>
@@ -8230,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="S124" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T124">
         <v>0.03</v>
@@ -8247,19 +8250,19 @@
         <v>93</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C125" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H125">
         <v>0.14</v>
@@ -8286,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="S125" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T125">
         <v>0.105</v>
@@ -8303,19 +8306,19 @@
         <v>93</v>
       </c>
       <c r="B126" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C126" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E126" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H126">
         <v>0.14</v>
@@ -8342,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="S126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T126">
         <v>0.067</v>
@@ -8359,19 +8362,19 @@
         <v>93</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C127" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D127" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E127" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G127" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H127">
         <v>0.14</v>
@@ -8398,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="S127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T127">
         <v>0.035</v>
@@ -8415,19 +8418,19 @@
         <v>94</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C128" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D128" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E128">
         <v>0.58</v>
       </c>
       <c r="G128" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -8439,13 +8442,13 @@
         <v>2016</v>
       </c>
       <c r="K128" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L128" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M128" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N128">
         <v>0.0083</v>
@@ -8457,7 +8460,7 @@
         <v>-1</v>
       </c>
       <c r="R128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AO128">
         <v>0.305</v>
@@ -8469,24 +8472,24 @@
         <v>0.343</v>
       </c>
     </row>
-    <row r="129" spans="1:47">
+    <row r="129" spans="1:43">
       <c r="A129" t="s">
         <v>94</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C129" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E129">
         <v>0.65</v>
       </c>
       <c r="G129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -8498,13 +8501,13 @@
         <v>2016</v>
       </c>
       <c r="K129" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L129" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M129" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N129">
         <v>0.0083</v>
@@ -8516,7 +8519,7 @@
         <v>-1</v>
       </c>
       <c r="R129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AO129">
         <v>0.47</v>
@@ -8528,24 +8531,24 @@
         <v>0.532</v>
       </c>
     </row>
-    <row r="130" spans="1:47">
+    <row r="130" spans="1:43">
       <c r="A130" t="s">
         <v>94</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C130" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E130">
         <v>0.7</v>
       </c>
       <c r="G130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -8557,13 +8560,13 @@
         <v>2016</v>
       </c>
       <c r="K130" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L130" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M130" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N130">
         <v>0.0083</v>
@@ -8575,7 +8578,7 @@
         <v>-1</v>
       </c>
       <c r="R130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AO130">
         <v>0.65</v>
@@ -8587,24 +8590,24 @@
         <v>0.739</v>
       </c>
     </row>
-    <row r="131" spans="1:47">
+    <row r="131" spans="1:43">
       <c r="A131" t="s">
         <v>94</v>
       </c>
       <c r="B131" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -8616,13 +8619,13 @@
         <v>2016</v>
       </c>
       <c r="K131" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L131" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M131" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N131">
         <v>0.0083</v>
@@ -8634,7 +8637,7 @@
         <v>-1</v>
       </c>
       <c r="R131" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AO131">
         <v>0.052</v>
@@ -8646,24 +8649,24 @@
         <v>0.059</v>
       </c>
     </row>
-    <row r="132" spans="1:47">
+    <row r="132" spans="1:43">
       <c r="A132" t="s">
         <v>94</v>
       </c>
       <c r="B132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E132" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -8675,13 +8678,13 @@
         <v>2016</v>
       </c>
       <c r="K132" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L132" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M132" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N132">
         <v>0.0083</v>
@@ -8693,7 +8696,7 @@
         <v>-1</v>
       </c>
       <c r="R132" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AO132">
         <v>0.205</v>
@@ -8705,24 +8708,24 @@
         <v>0.227</v>
       </c>
     </row>
-    <row r="133" spans="1:47">
+    <row r="133" spans="1:43">
       <c r="A133" t="s">
         <v>94</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D133" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E133" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G133" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -8734,13 +8737,13 @@
         <v>2016</v>
       </c>
       <c r="K133" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L133" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M133" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N133">
         <v>0.0083</v>
@@ -8752,7 +8755,7 @@
         <v>-1</v>
       </c>
       <c r="R133" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AO133">
         <v>0.458</v>
@@ -8764,24 +8767,24 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="134" spans="1:47">
+    <row r="134" spans="1:43">
       <c r="A134" t="s">
         <v>95</v>
       </c>
       <c r="B134" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C134">
         <v>350</v>
       </c>
       <c r="D134" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E134">
         <v>0.85</v>
       </c>
       <c r="G134" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H134">
         <v>0.13</v>
@@ -8793,45 +8796,45 @@
         <v>0.06</v>
       </c>
       <c r="L134" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M134" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N134" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O134" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S134" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL134">
         <v>0.12</v>
       </c>
     </row>
-    <row r="135" spans="1:47">
+    <row r="135" spans="1:43">
       <c r="A135" t="s">
         <v>96</v>
       </c>
       <c r="B135" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C135">
         <v>350</v>
       </c>
       <c r="D135" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E135">
         <v>0.85</v>
       </c>
       <c r="G135" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H135">
         <v>0.13</v>
@@ -8843,42 +8846,42 @@
         <v>0.06</v>
       </c>
       <c r="L135" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M135" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N135" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O135" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P135" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AL135">
         <v>0.225</v>
       </c>
     </row>
-    <row r="136" spans="1:47">
+    <row r="136" spans="1:43">
       <c r="A136" t="s">
         <v>97</v>
       </c>
       <c r="B136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C136">
         <v>350</v>
       </c>
       <c r="D136" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E136">
         <v>0.85</v>
       </c>
       <c r="G136" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H136">
         <v>0.13</v>
@@ -8890,45 +8893,45 @@
         <v>0.06</v>
       </c>
       <c r="L136" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M136" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N136" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O136" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P136" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S136" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T136">
         <v>0.323</v>
       </c>
     </row>
-    <row r="137" spans="1:47">
+    <row r="137" spans="1:43">
       <c r="A137" t="s">
         <v>98</v>
       </c>
       <c r="B137" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C137" t="s">
+        <v>234</v>
+      </c>
+      <c r="D137" t="s">
         <v>236</v>
-      </c>
-      <c r="D137" t="s">
-        <v>238</v>
       </c>
       <c r="F137">
         <v>0.8</v>
       </c>
       <c r="G137" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H137">
         <v>0.2</v>
@@ -8946,16 +8949,16 @@
         <v>0</v>
       </c>
       <c r="N137" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O137">
         <v>-1</v>
       </c>
       <c r="P137" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S137" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AO137">
         <v>0.037</v>
@@ -8967,24 +8970,24 @@
         <v>0.116</v>
       </c>
     </row>
-    <row r="138" spans="1:47">
+    <row r="138" spans="1:43">
       <c r="A138" t="s">
         <v>98</v>
       </c>
       <c r="B138" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C138" t="s">
+        <v>234</v>
+      </c>
+      <c r="D138" t="s">
         <v>236</v>
-      </c>
-      <c r="D138" t="s">
-        <v>238</v>
       </c>
       <c r="F138">
         <v>0.8</v>
       </c>
       <c r="G138" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H138">
         <v>0.2</v>
@@ -9002,16 +9005,16 @@
         <v>0</v>
       </c>
       <c r="N138" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O138">
         <v>-1</v>
       </c>
       <c r="P138" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S138" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AO138">
         <v>0.241</v>
@@ -9023,24 +9026,24 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="139" spans="1:47">
+    <row r="139" spans="1:43">
       <c r="A139" t="s">
         <v>99</v>
       </c>
       <c r="B139" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C139">
         <v>500</v>
       </c>
       <c r="D139" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F139">
         <v>0.52</v>
       </c>
       <c r="G139" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H139">
         <v>0.12</v>
@@ -9058,13 +9061,13 @@
         <v>0</v>
       </c>
       <c r="N139" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O139" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P139" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R139">
         <v>95</v>
@@ -9079,24 +9082,24 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="140" spans="1:47">
+    <row r="140" spans="1:43">
       <c r="A140" t="s">
         <v>100</v>
       </c>
       <c r="B140" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C140">
         <v>350</v>
       </c>
       <c r="D140" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E140">
         <v>0.9</v>
       </c>
       <c r="G140" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H140">
         <v>0.04</v>
@@ -9108,13 +9111,13 @@
         <v>2015</v>
       </c>
       <c r="K140" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L140" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M140" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N140">
         <v>0.0458</v>
@@ -9129,27 +9132,27 @@
         <v>-2</v>
       </c>
       <c r="S140" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T140">
         <v>0.113</v>
       </c>
     </row>
-    <row r="141" spans="1:47">
+    <row r="141" spans="1:43">
       <c r="A141" t="s">
         <v>101</v>
       </c>
       <c r="B141" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D141" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F141" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G141" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H141">
         <v>0.04</v>
@@ -9176,27 +9179,27 @@
         <v>1</v>
       </c>
       <c r="S141" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO141">
         <v>0.023</v>
       </c>
     </row>
-    <row r="142" spans="1:47">
+    <row r="142" spans="1:43">
       <c r="A142" t="s">
         <v>101</v>
       </c>
       <c r="B142" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D142" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F142" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G142" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H142">
         <v>0.04</v>
@@ -9223,27 +9226,27 @@
         <v>1</v>
       </c>
       <c r="S142" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO142">
         <v>0.015</v>
       </c>
     </row>
-    <row r="143" spans="1:47">
+    <row r="143" spans="1:43">
       <c r="A143" t="s">
         <v>101</v>
       </c>
       <c r="B143" t="s">
+        <v>232</v>
+      </c>
+      <c r="D143" t="s">
+        <v>242</v>
+      </c>
+      <c r="F143" t="s">
         <v>233</v>
       </c>
-      <c r="D143" t="s">
-        <v>244</v>
-      </c>
-      <c r="F143" t="s">
-        <v>235</v>
-      </c>
       <c r="G143" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H143">
         <v>0.04</v>
@@ -9270,57 +9273,10 @@
         <v>1</v>
       </c>
       <c r="S143" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO143">
         <v>0.031</v>
-      </c>
-    </row>
-    <row r="144" spans="1:47">
-      <c r="A144" t="s">
-        <v>102</v>
-      </c>
-      <c r="B144" t="s">
-        <v>234</v>
-      </c>
-      <c r="C144">
-        <v>350</v>
-      </c>
-      <c r="D144" t="s">
-        <v>236</v>
-      </c>
-      <c r="E144" t="s">
-        <v>235</v>
-      </c>
-      <c r="G144" t="s">
-        <v>236</v>
-      </c>
-      <c r="H144" t="s">
-        <v>235</v>
-      </c>
-      <c r="I144">
-        <v>2014</v>
-      </c>
-      <c r="K144">
-        <v>0.245</v>
-      </c>
-      <c r="L144">
-        <v>-1</v>
-      </c>
-      <c r="M144">
-        <v>0</v>
-      </c>
-      <c r="N144">
-        <v>0.024</v>
-      </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-      <c r="P144">
-        <v>1</v>
-      </c>
-      <c r="AU144">
-        <v>0.065</v>
       </c>
     </row>
   </sheetData>
